--- a/dist/document/dest/2020/10/doctors/nml.xlsx
+++ b/dist/document/dest/2020/10/doctors/nml.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>3486</v>
       </c>
-      <c r="C2" s="1">
-        <v>28759500</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>3486</v>
       </c>
-      <c r="C3" s="1">
-        <v>60203220</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>1773</v>
       </c>
-      <c r="C4" s="1">
-        <v>18527850</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>15</v>
       </c>
-      <c r="C5" s="1">
-        <v>231000</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>3486</v>
       </c>
-      <c r="C6" s="1">
-        <v>29334690</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>3546</v>
       </c>
-      <c r="C7" s="1">
-        <v>27304200</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -471,7 +453,7 @@
         <v>15792</v>
       </c>
       <c r="C8" s="1">
-        <v>164360460</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/nml.xlsx
+++ b/dist/document/dest/2020/10/doctors/nml.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,63 +402,180 @@
         <v>Binexmetone (Nabumetone 500mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>3486</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>115500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Cododamed (Pregabalina 75mg)</v>
+        <v>Binexmetone (Nabumetone 500mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>3486</v>
+        <v>2706</v>
+      </c>
+      <c r="C3" s="1">
+        <v>22324500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Esocon  20mg (Esomeprazole)</v>
+        <v>Binexmetone (Nabumetone 500mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>1773</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>247500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Esofar (Esomeprazole 40mg)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>241780</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Opecerin (Diacerein 50mg)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>3486</v>
+        <v>2886</v>
+      </c>
+      <c r="C6" s="1">
+        <v>49841220</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>3546</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>518100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>73150</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1298</v>
+      </c>
+      <c r="C9" s="1">
+        <v>13564100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>156750</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B11" s="1">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>117810</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3006</v>
+      </c>
+      <c r="C12" s="1">
+        <v>25295490</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B13" s="1">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1">
+        <v>252450</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>107800</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2706</v>
+      </c>
+      <c r="C15" s="1">
+        <v>20836200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B16" s="1">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B8" s="1">
-        <v>15792</v>
-      </c>
-      <c r="C8" s="1">
-        <v>NaN</v>
+      <c r="B17" s="1">
+        <v>12800</v>
+      </c>
+      <c r="C17" s="1">
+        <v>133923350</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C17"/>
   </ignoredErrors>
 </worksheet>
 </file>